--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124142a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124142a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.5613920255536881</v>
+      </c>
+      <c r="D5">
+        <v>0.693069135597537</v>
+      </c>
+      <c r="E5">
+        <v>3.335884056271145</v>
+      </c>
+      <c r="F5">
+        <v>1.856283260157418</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.5613920255536881</v>
+        <v>2.12510366349372</v>
       </c>
       <c r="D6">
-        <v>0.693069135597537</v>
+        <v>2.639565274700928</v>
       </c>
       <c r="E6">
-        <v>3.335884056271145</v>
+        <v>22.04001221269484</v>
       </c>
       <c r="F6">
-        <v>1.856283260157418</v>
+        <v>9.493591893088086</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.12510366349372</v>
+        <v>1.073311991630509</v>
       </c>
       <c r="D7">
-        <v>2.639565274700928</v>
+        <v>1.431450251326949</v>
       </c>
       <c r="E7">
-        <v>22.04001221269484</v>
+        <v>6.356131179418925</v>
       </c>
       <c r="F7">
-        <v>9.493591893088086</v>
+        <v>3.280307125599336</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3.971474624617351</v>
+      </c>
+      <c r="D8">
+        <v>5.196255555925475</v>
+      </c>
+      <c r="E8">
+        <v>33.54470416273193</v>
+      </c>
+      <c r="F8">
+        <v>11.58815669049625</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.073311991630509</v>
+        <v>5.813782155188518</v>
       </c>
       <c r="D9">
-        <v>1.431450251326949</v>
+        <v>6.281205206359146</v>
       </c>
       <c r="E9">
-        <v>6.356131179418925</v>
+        <v>37.40427618939475</v>
       </c>
       <c r="F9">
-        <v>3.280307125599336</v>
+        <v>22.91181621778543</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.971474624617351</v>
+        <v>3.40104575941056</v>
       </c>
       <c r="D10">
-        <v>5.196255555925475</v>
+        <v>4.595737684759133</v>
       </c>
       <c r="E10">
-        <v>33.54470416273193</v>
+        <v>15.916269795341</v>
       </c>
       <c r="F10">
-        <v>11.58815669049625</v>
+        <v>9.725943420506395</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.813782155188518</v>
+        <v>7.408426818689594</v>
       </c>
       <c r="D11">
-        <v>6.281205206359146</v>
+        <v>7.739880085632082</v>
       </c>
       <c r="E11">
-        <v>37.40427618939475</v>
+        <v>36.90088040555445</v>
       </c>
       <c r="F11">
-        <v>22.91181621778543</v>
+        <v>15.55268855867311</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.40104575941056</v>
+        <v>1.217573171707921</v>
       </c>
       <c r="D12">
-        <v>4.595737684759133</v>
+        <v>1.664512960338373</v>
       </c>
       <c r="E12">
-        <v>15.916269795341</v>
+        <v>7.806219359523851</v>
       </c>
       <c r="F12">
-        <v>9.725943420506395</v>
+        <v>3.83390650472889</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.408426818689594</v>
+        <v>5.300357278253804</v>
       </c>
       <c r="D13">
-        <v>7.739880085632082</v>
+        <v>7.772824871324134</v>
       </c>
       <c r="E13">
-        <v>36.90088040555445</v>
+        <v>24.76658769243353</v>
       </c>
       <c r="F13">
-        <v>15.55268855867311</v>
+        <v>12.32852466163121</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.217573171707921</v>
+        <v>5.919529813400797</v>
       </c>
       <c r="D14">
-        <v>1.664512960338373</v>
+        <v>6.403450508652802</v>
       </c>
       <c r="E14">
-        <v>7.806219359523851</v>
+        <v>33.44077038536856</v>
       </c>
       <c r="F14">
-        <v>3.83390650472889</v>
+        <v>24.72274216185039</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.300357278253804</v>
+        <v>0.8709989731968052</v>
       </c>
       <c r="D15">
-        <v>7.772824871324134</v>
+        <v>1.128884440647534</v>
       </c>
       <c r="E15">
-        <v>24.76658769243353</v>
+        <v>4.896263553490742</v>
       </c>
       <c r="F15">
-        <v>12.32852466163121</v>
+        <v>2.796044660956801</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.919529813400797</v>
+        <v>3.538266909444326</v>
       </c>
       <c r="D16">
-        <v>6.403450508652802</v>
+        <v>4.866290295455959</v>
       </c>
       <c r="E16">
-        <v>33.44077038536856</v>
+        <v>25.51398877366557</v>
       </c>
       <c r="F16">
-        <v>24.72274216185039</v>
+        <v>10.49879197720365</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.8709989731968052</v>
+        <v>3.184085181401212</v>
       </c>
       <c r="D17">
-        <v>1.128884440647534</v>
+        <v>4.33580407378902</v>
       </c>
       <c r="E17">
-        <v>4.896263553490742</v>
+        <v>20.87442488446296</v>
       </c>
       <c r="F17">
-        <v>2.796044660956801</v>
+        <v>14.94070738965184</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.538266909444326</v>
+        <v>1.47280537986586</v>
       </c>
       <c r="D18">
-        <v>4.866290295455959</v>
+        <v>1.931799648816434</v>
       </c>
       <c r="E18">
-        <v>25.51398877366557</v>
+        <v>8.556880544096154</v>
       </c>
       <c r="F18">
-        <v>10.49879197720365</v>
+        <v>4.887849485448831</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.184085181401212</v>
+        <v>3.531660535462171</v>
       </c>
       <c r="D19">
-        <v>4.33580407378902</v>
+        <v>4.847706132617088</v>
       </c>
       <c r="E19">
-        <v>20.87442488446296</v>
+        <v>14.04503368021855</v>
       </c>
       <c r="F19">
-        <v>14.94070738965184</v>
+        <v>10.4555739536709</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1.47280537986586</v>
+        <v>5.162192713346876</v>
       </c>
       <c r="D20">
-        <v>1.931799648816434</v>
+        <v>5.293751848869414</v>
       </c>
       <c r="E20">
-        <v>8.556880544096154</v>
+        <v>20.8454816578629</v>
       </c>
       <c r="F20">
-        <v>4.887849485448831</v>
+        <v>11.86075230566603</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.531660535462171</v>
+        <v>1.757024083338653</v>
       </c>
       <c r="D21">
-        <v>4.847706132617088</v>
+        <v>2.451081001910647</v>
       </c>
       <c r="E21">
-        <v>14.04503368021855</v>
+        <v>10.47802145642595</v>
       </c>
       <c r="F21">
-        <v>10.4555739536709</v>
+        <v>5.253634248041876</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.162192713346876</v>
+        <v>5.027131120137144</v>
       </c>
       <c r="D22">
-        <v>5.293751848869414</v>
+        <v>7.547983521225901</v>
       </c>
       <c r="E22">
-        <v>20.8454816578629</v>
+        <v>26.88568762319249</v>
       </c>
       <c r="F22">
-        <v>11.86075230566603</v>
+        <v>10.63431583105934</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.757024083338653</v>
+        <v>4.971640775142352</v>
       </c>
       <c r="D23">
-        <v>2.451081001910647</v>
+        <v>6.864254870322214</v>
       </c>
       <c r="E23">
-        <v>10.47802145642595</v>
+        <v>18.89142189522205</v>
       </c>
       <c r="F23">
-        <v>5.253634248041876</v>
+        <v>11.40552883709128</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.027131120137144</v>
+        <v>1.284387339075195</v>
       </c>
       <c r="D24">
-        <v>7.547983521225901</v>
+        <v>1.673983765170306</v>
       </c>
       <c r="E24">
-        <v>26.88568762319249</v>
+        <v>7.579336370220597</v>
       </c>
       <c r="F24">
-        <v>10.63431583105934</v>
+        <v>5.619381713397531</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.971640775142352</v>
+        <v>1.01386613005944</v>
       </c>
       <c r="D25">
-        <v>6.864254870322214</v>
+        <v>1.224072034041982</v>
       </c>
       <c r="E25">
-        <v>18.89142189522205</v>
+        <v>6.701378080494357</v>
       </c>
       <c r="F25">
-        <v>11.40552883709128</v>
+        <v>3.595868562961575</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1.284387339075195</v>
+        <v>2.025405207973079</v>
       </c>
       <c r="D26">
-        <v>1.673983765170306</v>
+        <v>2.458038492417626</v>
       </c>
       <c r="E26">
-        <v>7.579336370220597</v>
+        <v>12.57087737431899</v>
       </c>
       <c r="F26">
-        <v>5.619381713397531</v>
+        <v>7.125270843853238</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1.01386613005944</v>
+        <v>3.49745773688922</v>
       </c>
       <c r="D27">
-        <v>1.224072034041982</v>
+        <v>4.24265245563042</v>
       </c>
       <c r="E27">
-        <v>6.701378080494357</v>
+        <v>21.91104442651091</v>
       </c>
       <c r="F27">
-        <v>3.595868562961575</v>
+        <v>12.24110207911227</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2.025405207973079</v>
+        <v>2.190188994361788</v>
       </c>
       <c r="D28">
-        <v>2.458038492417626</v>
+        <v>2.49789135902673</v>
       </c>
       <c r="E28">
-        <v>12.57087737431899</v>
+        <v>13.67152597238448</v>
       </c>
       <c r="F28">
-        <v>7.125270843853238</v>
+        <v>6.540095646995042</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>3.49745773688922</v>
+        <v>1.417193667149829</v>
       </c>
       <c r="D29">
-        <v>4.24265245563042</v>
+        <v>1.750689093983313</v>
       </c>
       <c r="E29">
-        <v>21.91104442651091</v>
+        <v>9.496869949090518</v>
       </c>
       <c r="F29">
-        <v>12.24110207911227</v>
+        <v>5.445109504259943</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2.190188994361788</v>
+        <v>1.624558870314463</v>
       </c>
       <c r="D30">
-        <v>2.49789135902673</v>
+        <v>1.919085983914649</v>
       </c>
       <c r="E30">
-        <v>13.67152597238448</v>
+        <v>11.07094839696286</v>
       </c>
       <c r="F30">
-        <v>6.540095646995042</v>
+        <v>5.32900041064999</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1.417193667149829</v>
+        <v>2.358100231038286</v>
       </c>
       <c r="D31">
-        <v>1.750689093983313</v>
+        <v>2.85339638369169</v>
       </c>
       <c r="E31">
-        <v>9.496869949090518</v>
+        <v>16.92162783756264</v>
       </c>
       <c r="F31">
-        <v>5.445109504259943</v>
+        <v>8.4891355351927</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1.624558870314463</v>
+        <v>7.516463755238434</v>
       </c>
       <c r="D32">
-        <v>1.919085983914649</v>
+        <v>7.995028577740057</v>
       </c>
       <c r="E32">
-        <v>11.07094839696286</v>
+        <v>55.65836420217583</v>
       </c>
       <c r="F32">
-        <v>5.32900041064999</v>
+        <v>19.29225697177865</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2.358100231038286</v>
+        <v>2.05616476378889</v>
       </c>
       <c r="D33">
-        <v>2.85339638369169</v>
+        <v>2.507182005903824</v>
       </c>
       <c r="E33">
-        <v>16.92162783756264</v>
+        <v>13.88833003307134</v>
       </c>
       <c r="F33">
-        <v>8.4891355351927</v>
+        <v>6.485531752654293</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>7.516463755238434</v>
+        <v>1.50213183431587</v>
       </c>
       <c r="D34">
-        <v>7.995028577740057</v>
+        <v>1.676033985531241</v>
       </c>
       <c r="E34">
-        <v>55.65836420217583</v>
+        <v>9.592308121207592</v>
       </c>
       <c r="F34">
-        <v>19.29225697177865</v>
+        <v>5.327119880466271</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>2.05616476378889</v>
+        <v>4.465966933130757</v>
       </c>
       <c r="D35">
-        <v>2.507182005903824</v>
+        <v>5.277164906662377</v>
       </c>
       <c r="E35">
-        <v>13.88833003307134</v>
+        <v>23.50080996242298</v>
       </c>
       <c r="F35">
-        <v>6.485531752654293</v>
+        <v>13.06295327940747</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1.50213183431587</v>
+        <v>4.315190217221306</v>
       </c>
       <c r="D36">
-        <v>1.676033985531241</v>
+        <v>4.59304552551932</v>
       </c>
       <c r="E36">
-        <v>9.592308121207592</v>
+        <v>29.60153819703956</v>
       </c>
       <c r="F36">
-        <v>5.327119880466271</v>
+        <v>15.41139363293323</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>4.465966933130757</v>
+        <v>2.124647757501277</v>
       </c>
       <c r="D37">
-        <v>5.277164906662377</v>
+        <v>2.26991569800559</v>
       </c>
       <c r="E37">
-        <v>23.50080996242298</v>
+        <v>17.41289118693697</v>
       </c>
       <c r="F37">
-        <v>13.06295327940747</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>4.315190217221306</v>
-      </c>
-      <c r="D38">
-        <v>4.59304552551932</v>
-      </c>
-      <c r="E38">
-        <v>29.60153819703956</v>
-      </c>
-      <c r="F38">
-        <v>15.41139363293323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>2.124647757501277</v>
-      </c>
-      <c r="D39">
-        <v>2.26991569800559</v>
-      </c>
-      <c r="E39">
-        <v>17.41289118693697</v>
-      </c>
-      <c r="F39">
         <v>10.00560862544206</v>
       </c>
     </row>
